--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject35.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject35.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.72810129535563828</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -155,10 +155,10 @@
         <v>0</v>
       </c>
       <c r="J1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1" s="0">
-        <v>0</v>
+        <v>0.86970623479500175</v>
       </c>
       <c r="L1" s="0">
         <v>0</v>
@@ -254,7 +254,7 @@
         <v>0</v>
       </c>
       <c r="AQ1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR1" s="0">
         <v>0</v>
@@ -308,7 +308,7 @@
         <v>0</v>
       </c>
       <c r="BI1" s="0">
-        <v>0</v>
+        <v>0.80796395212457661</v>
       </c>
       <c r="BJ1" s="0">
         <v>0</v>
@@ -326,24 +326,24 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0.9218846561884938</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0.93614880945372381</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.77805481981011981</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0.62778220197731294</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>0.92782800040264035</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2" s="0">
         <v>0</v>
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="AZ2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="0">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0.89749774934211679</v>
       </c>
     </row>
     <row r="3">
@@ -543,16 +543,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0.51957418447867132</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0.76863616550765279</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="AP3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ3" s="0">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="AZ3" s="0">
-        <v>0</v>
+        <v>0.85730071503369309</v>
       </c>
       <c r="BA3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>0.57556751412172824</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0.53557526032610858</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0.95901473989895181</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0.64028364605568311</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0.87078561047738301</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.90092929247694875</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="BH5" s="0">
-        <v>0</v>
+        <v>0.76643505490127195</v>
       </c>
       <c r="BI5" s="0">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0.70626750353688916</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0.76455817872765008</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0.9875368996607139</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="AW6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.9654759124649922</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0.7542085795967659</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
+        <v>0.6210187477847332</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="BC7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="0">
         <v>0</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="BN7" s="0">
-        <v>0</v>
+        <v>0.90671590771677391</v>
       </c>
       <c r="BO7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0.65648815504612901</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0</v>
+        <v>0.57847661177849374</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.96866755761251244</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>0.91505019002772081</v>
       </c>
       <c r="H9" s="0">
-        <v>0</v>
+        <v>0.89971453718792738</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0</v>
+        <v>0.61771560195865283</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0.77965303982968648</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="BB9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC9" s="0">
         <v>0</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="0">
         <v>0</v>
@@ -2003,22 +2003,22 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.50879597316699765</v>
       </c>
       <c r="I10" s="0">
-        <v>0</v>
+        <v>0.67708369202151197</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0</v>
+        <v>0.68258570917234418</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="0">
-        <v>0</v>
+        <v>0.51948859331376118</v>
       </c>
       <c r="N10" s="0">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="BJ10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK10" s="0">
         <v>0</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0</v>
+        <v>0.89323638542107808</v>
       </c>
       <c r="B11" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0.83590685406778897</v>
       </c>
       <c r="J11" s="0">
-        <v>0</v>
+        <v>0.97584434008922827</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="0">
         <v>0</v>
@@ -2266,13 +2266,13 @@
         <v>0</v>
       </c>
       <c r="AA11" s="0">
-        <v>0</v>
+        <v>0.91403783777312231</v>
       </c>
       <c r="AB11" s="0">
         <v>0</v>
       </c>
       <c r="AC11" s="0">
-        <v>0</v>
+        <v>0.71806470181260074</v>
       </c>
       <c r="AD11" s="0">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="AK11" s="0">
-        <v>0</v>
+        <v>0.87992077409304681</v>
       </c>
       <c r="AL11" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0</v>
+        <v>0.8046293212573522</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0.87806459229964529</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="BL12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM12" s="0">
         <v>0</v>
@@ -2627,28 +2627,28 @@
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>0</v>
+        <v>0.78740814579998153</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>0</v>
+        <v>0.99039997935458113</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0.67245706203998568</v>
       </c>
       <c r="O13" s="0">
-        <v>0</v>
+        <v>0.73728622543657951</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="0">
         <v>0</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="0">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="AL13" s="0">
-        <v>0</v>
+        <v>0.58116721864548149</v>
       </c>
       <c r="AM13" s="0">
         <v>0</v>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="AX13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0.65957134533227624</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0.86649779571684504</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0.69101019964954113</v>
       </c>
       <c r="P14" s="0">
-        <v>0</v>
+        <v>0.87157602219426811</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="AX14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0</v>
+        <v>0.90241236469586927</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0.63652259769434627</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0.98344018233042352</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0.521648454791242</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0</v>
+        <v>0.89552584468129326</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0.93976776502526105</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0</v>
+        <v>0.71765061086757598</v>
       </c>
       <c r="R16" s="0">
-        <v>0</v>
+        <v>0.72278078638833509</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="BK16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL16" s="0">
         <v>0</v>
@@ -3460,22 +3460,22 @@
         <v>0</v>
       </c>
       <c r="M17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="0">
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0.69724972779070926</v>
       </c>
       <c r="P17" s="0">
-        <v>0</v>
+        <v>0.82234028422645666</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0</v>
+        <v>0.72572773057756956</v>
       </c>
       <c r="S17" s="0">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="AU17" s="0">
-        <v>0</v>
+        <v>0.76013722176524756</v>
       </c>
       <c r="AV17" s="0">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="AY17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="0">
         <v>0</v>
@@ -3610,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="BK17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL17" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0</v>
+        <v>0.67407230374848104</v>
       </c>
       <c r="Q18" s="0">
-        <v>0</v>
+        <v>0.56536545936933114</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.5336336413635665</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0.57009235854409201</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="AR18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS18" s="0">
         <v>0</v>
@@ -3887,16 +3887,16 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.70844217390144082</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0.51933684531562518</v>
       </c>
       <c r="U19" s="0">
-        <v>0</v>
+        <v>0.58223007222544121</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="BO19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP19" s="0">
         <v>0</v>
@@ -4093,19 +4093,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0.71155467067133193</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0.95219876891614585</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0.71702968762942909</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.61147824324833189</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0</v>
+        <v>0.51964993546625204</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0.61589601259804216</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.51587846337937981</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.84989197791490867</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.98632412053164575</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.57510478719965041</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.97376360963956898</v>
       </c>
       <c r="X22" s="0">
-        <v>0</v>
+        <v>0.58810252656868711</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="AQ22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR22" s="0">
         <v>0</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="BG22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH22" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.62586843712146245</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.98859201276949038</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0.91982997610897055</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0.58208187037652992</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="AI23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="0">
         <v>0</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0</v>
+        <v>0.63229817965141188</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0.83381057208076292</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0</v>
+        <v>0.89116520284809275</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0.81092389327934211</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4968,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="AI24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="0">
         <v>0</v>
@@ -5138,16 +5138,16 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.8504692436327197</v>
       </c>
       <c r="X25" s="0">
-        <v>0</v>
+        <v>0.64915497323354288</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.65879302004794271</v>
       </c>
       <c r="AA25" s="0">
         <v>0</v>
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="0">
-        <v>0</v>
+        <v>0.83197208131412403</v>
       </c>
       <c r="AD25" s="0">
         <v>0</v>
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="AG25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH25" s="0">
         <v>0</v>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="0">
-        <v>0</v>
+        <v>0.99699308970143385</v>
       </c>
       <c r="AK25" s="0">
         <v>0</v>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="BF25" s="0">
-        <v>0</v>
+        <v>0.84359706214303931</v>
       </c>
       <c r="BG25" s="0">
         <v>0</v>
@@ -5255,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="BJ25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK25" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0.98163245168551261</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0.95647480769653204</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0.88919615022700382</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0.61077041401311183</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="0">
-        <v>0</v>
+        <v>0.86195760058549831</v>
       </c>
       <c r="L27" s="0">
         <v>0</v>
@@ -5559,16 +5559,16 @@
         <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0.54028804957384735</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0.58345247522142674</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="AM27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN27" s="0">
         <v>0</v>
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="AT27" s="0">
-        <v>0</v>
+        <v>0.69705021288348135</v>
       </c>
       <c r="AU27" s="0">
         <v>0</v>
@@ -5765,19 +5765,19 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0.65354092795664553</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0.69364500572990129</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0.92889725198776918</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0.90816537055207558</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="0">
-        <v>0</v>
+        <v>0.70887501442102518</v>
       </c>
       <c r="L29" s="0">
         <v>0</v>
@@ -5968,22 +5968,22 @@
         <v>0</v>
       </c>
       <c r="Y29" s="0">
-        <v>0</v>
+        <v>0.6429216119907688</v>
       </c>
       <c r="Z29" s="0">
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0.81741051037186885</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.68060116777934898</v>
       </c>
       <c r="AE29" s="0">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="BA29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB29" s="0">
         <v>0</v>
@@ -6085,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="BL29" s="0">
-        <v>0</v>
+        <v>0.7719962502670441</v>
       </c>
       <c r="BM29" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0.96577850036186952</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.90843291108291102</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0.89268808157888724</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6249,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="AX30" s="0">
-        <v>0</v>
+        <v>0.52388069508890189</v>
       </c>
       <c r="AY30" s="0">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0.823623797584771</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="AN31" s="0">
-        <v>0</v>
+        <v>0.97203434602506311</v>
       </c>
       <c r="AO31" s="0">
         <v>0</v>
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="BK31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL31" s="0">
         <v>0</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0.53740707777737851</v>
       </c>
       <c r="AE32" s="0">
         <v>0</v>
@@ -6610,10 +6610,10 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.68045769111119914</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0.50580686700635424</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6792,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="Y33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="0">
         <v>0</v>
@@ -6810,22 +6810,22 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0.96891081008368085</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.86046911216189215</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0.93194697094318379</v>
       </c>
       <c r="AI33" s="0">
-        <v>0</v>
+        <v>0.77355370211990282</v>
       </c>
       <c r="AJ33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK33" s="0">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="BA33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB33" s="0">
         <v>0</v>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="BE33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF33" s="0">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0.73151173268323788</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0.89573122778009673</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0</v>
+        <v>0.8833327864277154</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0.70726454925586801</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7094,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="BE34" s="0">
-        <v>0</v>
+        <v>0.90560483983568396</v>
       </c>
       <c r="BF34" s="0">
         <v>0</v>
@@ -7118,13 +7118,13 @@
         <v>0</v>
       </c>
       <c r="BM34" s="0">
-        <v>1</v>
+        <v>0.66570409087206595</v>
       </c>
       <c r="BN34" s="0">
         <v>0</v>
       </c>
       <c r="BO34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP34" s="0">
         <v>0</v>
@@ -7198,10 +7198,10 @@
         <v>0</v>
       </c>
       <c r="W35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0</v>
+        <v>0.60705076661961122</v>
       </c>
       <c r="AH35" s="0">
-        <v>0</v>
+        <v>0.52077958585559703</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0.8203465417578728</v>
       </c>
       <c r="AK35" s="0">
-        <v>0</v>
+        <v>0.73676549802691538</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="BK35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL35" s="0">
         <v>0</v>
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="B36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="0">
         <v>0</v>
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="Y36" s="0">
-        <v>0</v>
+        <v>0.75881358297850154</v>
       </c>
       <c r="Z36" s="0">
         <v>0</v>
@@ -7434,22 +7434,22 @@
         <v>0</v>
       </c>
       <c r="AG36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0.84784975958818254</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0.77806403613587471</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0.7414212453801754</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7574,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="0">
-        <v>0</v>
+        <v>0.75321817008382519</v>
       </c>
       <c r="L37" s="0">
         <v>0</v>
@@ -7646,10 +7646,10 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0</v>
+        <v>0.83567136410184062</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0.82596277171365506</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.91942596725762016</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7673,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="AR37" s="0">
-        <v>0</v>
+        <v>0.78365666048282567</v>
       </c>
       <c r="AS37" s="0">
         <v>0</v>
@@ -7733,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="BL37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM37" s="0">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="0">
-        <v>0</v>
+        <v>0.53347486312733805</v>
       </c>
       <c r="N38" s="0">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="0">
         <v>0</v>
@@ -7864,10 +7864,10 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0.70889412182290101</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -8034,7 +8034,7 @@
         <v>0</v>
       </c>
       <c r="AA39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.92076314236359813</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0.76927133511676171</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>0</v>
+        <v>0.65019223029344309</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="BC39" s="0">
-        <v>0</v>
+        <v>0.67766385757803627</v>
       </c>
       <c r="BD39" s="0">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="AE40" s="0">
-        <v>0</v>
+        <v>0.79363198919231515</v>
       </c>
       <c r="AF40" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0.72524300417968413</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="AW40" s="0">
-        <v>0</v>
+        <v>0.56394381985647279</v>
       </c>
       <c r="AX40" s="0">
         <v>0</v>
@@ -8333,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="BF40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG40" s="0">
         <v>0</v>
@@ -8342,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="BI40" s="0">
-        <v>0</v>
+        <v>0.97678825264502189</v>
       </c>
       <c r="BJ40" s="0">
         <v>0</v>
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0</v>
+        <v>0.7570904893762469</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0.82848469535643732</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0</v>
+        <v>0.87292902964628882</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8512,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="AW41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX41" s="0">
         <v>0</v>
@@ -8580,7 +8580,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0.7677965272306998</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0.53370726112190225</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.91360947350203037</v>
       </c>
       <c r="AR42" s="0">
-        <v>0</v>
+        <v>0.73791538116566802</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8780,7 +8780,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43" s="0">
         <v>0</v>
@@ -8843,7 +8843,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W43" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0</v>
+        <v>0.711681933093262</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.81727472724085137</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0</v>
+        <v>0.669079896492768</v>
       </c>
       <c r="AS43" s="0">
-        <v>0</v>
+        <v>0.71827316285567311</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="BC43" s="0">
-        <v>0</v>
+        <v>0.99779383564302737</v>
       </c>
       <c r="BD43" s="0">
         <v>0</v>
@@ -9037,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="R44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S44" s="0">
         <v>0</v>
@@ -9094,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="AK44" s="0">
-        <v>0</v>
+        <v>0.64971161746852002</v>
       </c>
       <c r="AL44" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0</v>
+        <v>0.57931351267931674</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0</v>
+        <v>0.77827540971135023</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0</v>
+        <v>0.6741300190360846</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0</v>
+        <v>0.99415013327913537</v>
       </c>
       <c r="AR45" s="0">
-        <v>0</v>
+        <v>0.86171051974776947</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0.65829187981296378</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0.93574968409432979</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="AA46" s="0">
-        <v>0</v>
+        <v>0.75893515306126424</v>
       </c>
       <c r="AB46" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0.86091598275169878</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0</v>
+        <v>0.81701736754807364</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9584,7 +9584,7 @@
         <v>0</v>
       </c>
       <c r="BK46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL46" s="0">
         <v>0</v>
@@ -9596,7 +9596,7 @@
         <v>0</v>
       </c>
       <c r="BO46" s="0">
-        <v>0</v>
+        <v>0.7810317553154853</v>
       </c>
       <c r="BP46" s="0">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="0">
-        <v>0</v>
+        <v>0.52094381046848259</v>
       </c>
       <c r="R47" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0.9382268512612586</v>
       </c>
       <c r="AT47" s="0">
-        <v>0</v>
+        <v>0.91523650794033951</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0.85574241654638694</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0.51810137123899325</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9799,7 +9799,7 @@
         <v>0</v>
       </c>
       <c r="BN47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO47" s="0">
         <v>0</v>
@@ -9945,22 +9945,22 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0.56066997397984442</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0.72534883914563775</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0.83311274318830675</v>
       </c>
       <c r="AY48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ48" s="0">
         <v>0</v>
@@ -10031,7 +10031,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" s="0">
         <v>0</v>
@@ -10133,10 +10133,10 @@
         <v>0</v>
       </c>
       <c r="AN49" s="0">
-        <v>0</v>
+        <v>0.69232578034783288</v>
       </c>
       <c r="AO49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP49" s="0">
         <v>0</v>
@@ -10154,10 +10154,10 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0.8566627038839072</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0.80630852570855449</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0.68123008929490059</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10181,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="BD49" s="0">
-        <v>0</v>
+        <v>0.51636670501907767</v>
       </c>
       <c r="BE49" s="0">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="BG49" s="0">
-        <v>0</v>
+        <v>0.7778140844347563</v>
       </c>
       <c r="BH49" s="0">
         <v>0</v>
@@ -10258,10 +10258,10 @@
         <v>0</v>
       </c>
       <c r="M50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" s="0">
         <v>0</v>
@@ -10309,7 +10309,7 @@
         <v>0</v>
       </c>
       <c r="AD50" s="0">
-        <v>0</v>
+        <v>0.88901960749403441</v>
       </c>
       <c r="AE50" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0.7482578793407586</v>
       </c>
       <c r="AW50" s="0">
         <v>0</v>
@@ -10372,10 +10372,10 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0.56713018083085065</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0</v>
+        <v>0.82928453272054936</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10476,7 +10476,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51" s="0">
         <v>0</v>
@@ -10569,22 +10569,22 @@
         <v>0</v>
       </c>
       <c r="AV51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0.90046737218892603</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0.65669420450364369</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0.77227935274042681</v>
       </c>
       <c r="BA51" s="0">
-        <v>0</v>
+        <v>0.52517231257670893</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10637,10 +10637,10 @@
         <v>0</v>
       </c>
       <c r="B52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" s="0">
-        <v>0</v>
+        <v>0.64985145988117998</v>
       </c>
       <c r="D52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0</v>
+        <v>0.52454862976974281</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0.81906130910741592</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.95042680978544336</v>
       </c>
       <c r="BB52" s="0">
-        <v>0</v>
+        <v>0.52078385980505904</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10924,7 +10924,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD53" s="0">
         <v>0</v>
@@ -10936,7 +10936,7 @@
         <v>0</v>
       </c>
       <c r="AG53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH53" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0</v>
+        <v>0.95572977663273084</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.88879880312920689</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0</v>
+        <v>0.95910972989002552</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0.53116125104972745</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11070,7 +11070,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" s="0">
         <v>0</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0</v>
+        <v>0.71555660839889668</v>
       </c>
       <c r="BA54" s="0">
-        <v>0</v>
+        <v>0.82916953017418038</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0.60433318648570977</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0.80278960498237073</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11270,7 +11270,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="0">
         <v>0</v>
@@ -11366,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="AM55" s="0">
-        <v>0</v>
+        <v>0.6005566115413592</v>
       </c>
       <c r="AN55" s="0">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="0">
-        <v>0</v>
+        <v>0.73961875757164286</v>
       </c>
       <c r="AR55" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0.75091953791175792</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0.94575835979103651</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0.91011667518770833</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11602,7 +11602,7 @@
         <v>0</v>
       </c>
       <c r="AW56" s="0">
-        <v>0</v>
+        <v>0.59804844807271251</v>
       </c>
       <c r="AX56" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0.91377121645006709</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0.56909534593986089</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0.86616396740024371</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11760,10 +11760,10 @@
         <v>0</v>
       </c>
       <c r="AG57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH57" s="0">
-        <v>0</v>
+        <v>0.83205704697994642</v>
       </c>
       <c r="AI57" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0</v>
+        <v>0.96646914190808308</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11942,7 +11942,7 @@
         <v>0</v>
       </c>
       <c r="Y58" s="0">
-        <v>0</v>
+        <v>0.61744782786762575</v>
       </c>
       <c r="Z58" s="0">
         <v>0</v>
@@ -11987,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="AN58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO58" s="0">
         <v>0</v>
@@ -12035,10 +12035,10 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0.59967755536902689</v>
       </c>
       <c r="BE58" s="0">
-        <v>0</v>
+        <v>0.68744255895934647</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12047,7 +12047,7 @@
         <v>0</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0.96709533900470546</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12071,7 +12071,7 @@
         <v>0</v>
       </c>
       <c r="BP58" s="0">
-        <v>0</v>
+        <v>0.90624452968736091</v>
       </c>
     </row>
     <row r="59">
@@ -12139,7 +12139,7 @@
         <v>0</v>
       </c>
       <c r="V59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W59" s="0">
         <v>0</v>
@@ -12220,7 +12220,7 @@
         <v>0</v>
       </c>
       <c r="AW59" s="0">
-        <v>0</v>
+        <v>0.70642972830788886</v>
       </c>
       <c r="AX59" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12253,10 +12253,10 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.97489025466333867</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12294,7 +12294,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="0">
-        <v>0</v>
+        <v>0.50171972931943087</v>
       </c>
       <c r="F60" s="0">
         <v>0</v>
@@ -12453,19 +12453,19 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0.62596682038259854</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0.86543464522587199</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0.54463428602596031</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12488,7 +12488,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0</v>
+        <v>0.76977323851015633</v>
       </c>
       <c r="B61" s="0">
         <v>0</v>
@@ -12605,7 +12605,7 @@
         <v>0</v>
       </c>
       <c r="AN61" s="0">
-        <v>0</v>
+        <v>0.656278272306132</v>
       </c>
       <c r="AO61" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.98763877454165527</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0.99001506707921116</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.78592809488049886</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0.72587077726891291</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12721,7 +12721,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="0">
         <v>0</v>
@@ -12766,7 +12766,7 @@
         <v>0</v>
       </c>
       <c r="Y62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0.99585572246008769</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.89116071354682236</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0.80803690839798814</v>
       </c>
       <c r="BL62" s="0">
-        <v>0</v>
+        <v>0.66371597798711635</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12945,10 +12945,10 @@
         <v>0</v>
       </c>
       <c r="P63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R63" s="0">
         <v>0</v>
@@ -12990,7 +12990,7 @@
         <v>0</v>
       </c>
       <c r="AE63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF63" s="0">
         <v>0</v>
@@ -13002,7 +13002,7 @@
         <v>0</v>
       </c>
       <c r="AI63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ63" s="0">
         <v>0</v>
@@ -13035,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="AT63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0.65569256945177412</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0.50211355133582836</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0</v>
+        <v>0.83989892281583534</v>
       </c>
       <c r="BM63" s="0">
-        <v>0</v>
+        <v>0.64904776337795056</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13139,7 +13139,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" s="0">
         <v>0</v>
@@ -13190,7 +13190,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="0">
-        <v>0</v>
+        <v>0.97307998931858364</v>
       </c>
       <c r="AD64" s="0">
         <v>0</v>
@@ -13214,7 +13214,7 @@
         <v>0</v>
       </c>
       <c r="AK64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0</v>
+        <v>0.81907678123833894</v>
       </c>
       <c r="BK64" s="0">
-        <v>0</v>
+        <v>0.65972592933480878</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0.74667772059010273</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13411,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="AH65" s="0">
-        <v>1</v>
+        <v>0.54179209048674404</v>
       </c>
       <c r="AI65" s="0">
         <v>0</v>
@@ -13498,19 +13498,19 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0</v>
+        <v>0.54067773733540814</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>0</v>
+        <v>0.86304925386906839</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13536,7 +13536,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="0">
-        <v>0</v>
+        <v>0.65704164520171737</v>
       </c>
       <c r="H66" s="0">
         <v>0</v>
@@ -13656,7 +13656,7 @@
         <v>0</v>
       </c>
       <c r="AU66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV66" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0.68696369110401212</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0</v>
+        <v>0.59886767187429368</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0.66018205211007441</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0.59493555128136644</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="S67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T67" s="0">
         <v>0</v>
@@ -13823,7 +13823,7 @@
         <v>0</v>
       </c>
       <c r="AH67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI67" s="0">
         <v>0</v>
@@ -13859,7 +13859,7 @@
         <v>0</v>
       </c>
       <c r="AT67" s="0">
-        <v>0</v>
+        <v>0.56577449795889823</v>
       </c>
       <c r="AU67" s="0">
         <v>0</v>
@@ -13916,24 +13916,24 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0</v>
+        <v>0.69111065581228814</v>
       </c>
       <c r="BN67" s="0">
-        <v>0</v>
+        <v>0.99222680081645942</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0.6373666973302119</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0.50873727985514927</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14101,7 +14101,7 @@
         <v>0</v>
       </c>
       <c r="BF68" s="0">
-        <v>0</v>
+        <v>0.68875199818490751</v>
       </c>
       <c r="BG68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0.88302921469677487</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject35.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject35.xlsx
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0.72810129535563828</v>
+        <v>0.77805481981011981</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -158,7 +158,7 @@
         <v>0</v>
       </c>
       <c r="K1" s="0">
-        <v>0.86970623479500175</v>
+        <v>0.89323638542107808</v>
       </c>
       <c r="L1" s="0">
         <v>0</v>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>0.51957418447867132</v>
+        <v>0.62778220197731294</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0.57556751412172824</v>
+        <v>0.92782800040264035</v>
       </c>
       <c r="C4" s="0">
-        <v>0.53557526032610858</v>
+        <v>0.76863616550765279</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0.95901473989895181</v>
       </c>
       <c r="F4" s="0">
-        <v>0.64028364605568311</v>
+        <v>0.70626750353688916</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.87078561047738301</v>
+        <v>0.95901473989895181</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>0.90092929247694875</v>
+        <v>0.9654759124649922</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0.9654759124649922</v>
       </c>
       <c r="F7" s="0">
-        <v>0.7542085795967659</v>
+        <v>0.76455817872765008</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.6210187477847332</v>
+        <v>0.91505019002772081</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0.65648815504612901</v>
+        <v>0.9875368996607139</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0.57847661177849374</v>
+        <v>0.89971453718792738</v>
       </c>
       <c r="J8" s="0">
         <v>0.96866755761251244</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0.61771560195865283</v>
+        <v>0.67708369202151197</v>
       </c>
       <c r="K9" s="0">
-        <v>0.77965303982968648</v>
+        <v>0.83590685406778897</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.50879597316699765</v>
+        <v>0.96866755761251244</v>
       </c>
       <c r="I10" s="0">
         <v>0.67708369202151197</v>
@@ -2012,13 +2012,13 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.68258570917234418</v>
+        <v>0.97584434008922827</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
       </c>
       <c r="M10" s="0">
-        <v>0.51948859331376118</v>
+        <v>0.78740814579998153</v>
       </c>
       <c r="N10" s="0">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0.8046293212573522</v>
+        <v>0.99039997935458113</v>
       </c>
       <c r="N12" s="0">
         <v>0.87806459229964529</v>
@@ -2639,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.67245706203998568</v>
+        <v>0.86649779571684504</v>
       </c>
       <c r="O13" s="0">
-        <v>0.73728622543657951</v>
+        <v>0.90241236469586927</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0.65957134533227624</v>
+        <v>0.87806459229964529</v>
       </c>
       <c r="M14" s="0">
         <v>0.86649779571684504</v>
@@ -2851,7 +2851,7 @@
         <v>0.69101019964954113</v>
       </c>
       <c r="P14" s="0">
-        <v>0.87157602219426811</v>
+        <v>0.89552584468129326</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>0.90241236469586927</v>
       </c>
       <c r="N15" s="0">
-        <v>0.63652259769434627</v>
+        <v>0.69101019964954113</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0.98344018233042352</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.521648454791242</v>
+        <v>0.69724972779070926</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3260,13 +3260,13 @@
         <v>0.89552584468129326</v>
       </c>
       <c r="O16" s="0">
-        <v>0.93976776502526105</v>
+        <v>0.98344018233042352</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.71765061086757598</v>
+        <v>0.82234028422645666</v>
       </c>
       <c r="R16" s="0">
         <v>0.72278078638833509</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0.67407230374848104</v>
+        <v>0.72278078638833509</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.56536545936933114</v>
+        <v>0.72572773057756956</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0.5336336413635665</v>
+        <v>0.70844217390144082</v>
       </c>
       <c r="T18" s="0">
-        <v>0.57009235854409201</v>
+        <v>0.71155467067133193</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0.51933684531562518</v>
+        <v>0.95219876891614585</v>
       </c>
       <c r="U19" s="0">
         <v>0.58223007222544121</v>
@@ -4105,7 +4105,7 @@
         <v>0.71702968762942909</v>
       </c>
       <c r="V20" s="0">
-        <v>0.61147824324833189</v>
+        <v>0.98632412053164575</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4302,16 +4302,16 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0.51964993546625204</v>
+        <v>0.58223007222544121</v>
       </c>
       <c r="T21" s="0">
-        <v>0.61589601259804216</v>
+        <v>0.71702968762942909</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.51587846337937981</v>
+        <v>0.57510478719965041</v>
       </c>
       <c r="W21" s="0">
         <v>0.84989197791490867</v>
@@ -4520,10 +4520,10 @@
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0.97376360963956898</v>
+        <v>0.98859201276949038</v>
       </c>
       <c r="X22" s="0">
-        <v>0.58810252656868711</v>
+        <v>0.63229817965141188</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0.62586843712146245</v>
+        <v>0.84989197791490867</v>
       </c>
       <c r="V23" s="0">
         <v>0.98859201276949038</v>
@@ -4732,7 +4732,7 @@
         <v>0.91982997610897055</v>
       </c>
       <c r="Y23" s="0">
-        <v>0.58208187037652992</v>
+        <v>0.8504692436327197</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0.63229817965141188</v>
       </c>
       <c r="W24" s="0">
-        <v>0.83381057208076292</v>
+        <v>0.91982997610897055</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0.89116520284809275</v>
       </c>
       <c r="Z24" s="0">
-        <v>0.81092389327934211</v>
+        <v>0.98163245168551261</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5141,13 +5141,13 @@
         <v>0.8504692436327197</v>
       </c>
       <c r="X25" s="0">
-        <v>0.64915497323354288</v>
+        <v>0.89116520284809275</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0.65879302004794271</v>
+        <v>0.95647480769653204</v>
       </c>
       <c r="AA25" s="0">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0.88919615022700382</v>
       </c>
       <c r="AB26" s="0">
-        <v>0.61077041401311183</v>
+        <v>0.65354092795664553</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="0">
-        <v>0.86195760058549831</v>
+        <v>0.91403783777312231</v>
       </c>
       <c r="L27" s="0">
         <v>0</v>
@@ -5559,13 +5559,13 @@
         <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>0.54028804957384735</v>
+        <v>0.88919615022700382</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.58345247522142674</v>
+        <v>0.69364500572990129</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="AT27" s="0">
-        <v>0.69705021288348135</v>
+        <v>0.75893515306126424</v>
       </c>
       <c r="AU27" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0.92889725198776918</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.90816537055207558</v>
+        <v>0.96577850036186952</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="0">
-        <v>0.70887501442102518</v>
+        <v>0.71806470181260074</v>
       </c>
       <c r="L29" s="0">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="Y29" s="0">
-        <v>0.6429216119907688</v>
+        <v>0.83197208131412403</v>
       </c>
       <c r="Z29" s="0">
         <v>0</v>
@@ -5977,13 +5977,13 @@
         <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>0.81741051037186885</v>
+        <v>0.92889725198776918</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0.68060116777934898</v>
+        <v>0.90843291108291102</v>
       </c>
       <c r="AE29" s="0">
         <v>0</v>
@@ -6085,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="BL29" s="0">
-        <v>0.7719962502670441</v>
+        <v>0.97307998931858364</v>
       </c>
       <c r="BM29" s="0">
         <v>0</v>
@@ -6249,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="AX30" s="0">
-        <v>0.52388069508890189</v>
+        <v>0.88901960749403441</v>
       </c>
       <c r="AY30" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>0.823623797584771</v>
+        <v>0.96891081008368085</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>0.53740707777737851</v>
+        <v>0.89268808157888724</v>
       </c>
       <c r="AE32" s="0">
         <v>0</v>
@@ -6610,10 +6610,10 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0.68045769111119914</v>
+        <v>0.86046911216189215</v>
       </c>
       <c r="AH32" s="0">
-        <v>0.50580686700635424</v>
+        <v>0.73151173268323788</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -7022,7 +7022,7 @@
         <v>0.73151173268323788</v>
       </c>
       <c r="AG34" s="0">
-        <v>0.89573122778009673</v>
+        <v>0.93194697094318379</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>0.8833327864277154</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0.70726454925586801</v>
+        <v>0.84784975958818254</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7228,10 +7228,10 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.60705076661961122</v>
+        <v>0.77355370211990282</v>
       </c>
       <c r="AH35" s="0">
-        <v>0.52077958585559703</v>
+        <v>0.8833327864277154</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0.8203465417578728</v>
       </c>
       <c r="AK35" s="0">
-        <v>0.73676549802691538</v>
+        <v>0.83567136410184062</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="Y36" s="0">
-        <v>0.75881358297850154</v>
+        <v>0.99699308970143385</v>
       </c>
       <c r="Z36" s="0">
         <v>0</v>
@@ -7440,13 +7440,13 @@
         <v>0.84784975958818254</v>
       </c>
       <c r="AI36" s="0">
-        <v>0.77806403613587471</v>
+        <v>0.8203465417578728</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0.7414212453801754</v>
+        <v>0.82596277171365506</v>
       </c>
       <c r="AL36" s="0">
         <v>0</v>
@@ -7574,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="0">
-        <v>0.75321817008382519</v>
+        <v>0.87992077409304681</v>
       </c>
       <c r="L37" s="0">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.91942596725762016</v>
+        <v>0.92076314236359813</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="0">
-        <v>0.53347486312733805</v>
+        <v>0.58116721864548149</v>
       </c>
       <c r="N38" s="0">
         <v>0</v>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0.70889412182290101</v>
+        <v>0.76927133511676171</v>
       </c>
       <c r="AN38" s="0">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>0.65019223029344309</v>
+        <v>0.7570904893762469</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8252,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="AE40" s="0">
-        <v>0.79363198919231515</v>
+        <v>0.97203434602506311</v>
       </c>
       <c r="AF40" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>0.72524300417968413</v>
+        <v>0.7677965272306998</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="AW40" s="0">
-        <v>0.56394381985647279</v>
+        <v>0.69232578034783288</v>
       </c>
       <c r="AX40" s="0">
         <v>0</v>
@@ -8694,7 +8694,7 @@
         <v>0.7677965272306998</v>
       </c>
       <c r="AO42" s="0">
-        <v>0.53370726112190225</v>
+        <v>0.82848469535643732</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0.711681933093262</v>
+        <v>0.87292902964628882</v>
       </c>
       <c r="AP43" s="0">
-        <v>0.81727472724085137</v>
+        <v>0.91360947350203037</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.669079896492768</v>
+        <v>0.77827540971135023</v>
       </c>
       <c r="AS43" s="0">
-        <v>0.71827316285567311</v>
+        <v>0.99415013327913537</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9094,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="AK44" s="0">
-        <v>0.64971161746852002</v>
+        <v>0.78365666048282567</v>
       </c>
       <c r="AL44" s="0">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0.57931351267931674</v>
+        <v>0.73791538116566802</v>
       </c>
       <c r="AQ44" s="0">
         <v>0.77827540971135023</v>
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0.6741300190360846</v>
+        <v>0.86171051974776947</v>
       </c>
       <c r="AT44" s="0">
         <v>0</v>
@@ -9327,10 +9327,10 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0.65829187981296378</v>
+        <v>0.86091598275169878</v>
       </c>
       <c r="AU45" s="0">
-        <v>0.93574968409432979</v>
+        <v>0.9382268512612586</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0.81701736754807364</v>
+        <v>0.91523650794033951</v>
       </c>
       <c r="AV46" s="0">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="0">
-        <v>0.52094381046848259</v>
+        <v>0.76013722176524756</v>
       </c>
       <c r="R47" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0.85574241654638694</v>
       </c>
       <c r="AW47" s="0">
-        <v>0.51810137123899325</v>
+        <v>0.8566627038839072</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="AU48" s="0">
-        <v>0.56066997397984442</v>
+        <v>0.85574241654638694</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0.72534883914563775</v>
+        <v>0.80630852570855449</v>
       </c>
       <c r="AX48" s="0">
         <v>0.83311274318830675</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>0.68123008929490059</v>
+        <v>0.90046737218892603</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10181,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="BD49" s="0">
-        <v>0.51636670501907767</v>
+        <v>0.59804844807271251</v>
       </c>
       <c r="BE49" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0.7482578793407586</v>
+        <v>0.83311274318830675</v>
       </c>
       <c r="AW50" s="0">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>0.56713018083085065</v>
+        <v>0.65669420450364369</v>
       </c>
       <c r="AZ50" s="0">
         <v>0.82928453272054936</v>
@@ -10581,10 +10581,10 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0.77227935274042681</v>
+        <v>0.81906130910741592</v>
       </c>
       <c r="BA51" s="0">
-        <v>0.52517231257670893</v>
+        <v>0.95572977663273084</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="0">
-        <v>0.64985145988117998</v>
+        <v>0.85730071503369309</v>
       </c>
       <c r="D52" s="0">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0.52454862976974281</v>
+        <v>0.82928453272054936</v>
       </c>
       <c r="AY52" s="0">
         <v>0.81906130910741592</v>
@@ -10793,7 +10793,7 @@
         <v>0.95042680978544336</v>
       </c>
       <c r="BB52" s="0">
-        <v>0.52078385980505904</v>
+        <v>0.71555660839889668</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10993,7 +10993,7 @@
         <v>0.95572977663273084</v>
       </c>
       <c r="AZ53" s="0">
-        <v>0.88879880312920689</v>
+        <v>0.95042680978544336</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
@@ -11002,7 +11002,7 @@
         <v>0.95910972989002552</v>
       </c>
       <c r="BC53" s="0">
-        <v>0.53116125104972745</v>
+        <v>0.75091953791175792</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11202,16 +11202,16 @@
         <v>0.71555660839889668</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.82916953017418038</v>
+        <v>0.95910972989002552</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0.60433318648570977</v>
+        <v>0.94575835979103651</v>
       </c>
       <c r="BD54" s="0">
-        <v>0.80278960498237073</v>
+        <v>0.91377121645006709</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11366,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="AM55" s="0">
-        <v>0.6005566115413592</v>
+        <v>0.67766385757803627</v>
       </c>
       <c r="AN55" s="0">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="0">
-        <v>0.73961875757164286</v>
+        <v>0.99779383564302737</v>
       </c>
       <c r="AR55" s="0">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0.91377121645006709</v>
       </c>
       <c r="BC56" s="0">
-        <v>0.56909534593986089</v>
+        <v>0.91011667518770833</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
@@ -11763,7 +11763,7 @@
         <v>0</v>
       </c>
       <c r="AH57" s="0">
-        <v>0.83205704697994642</v>
+        <v>0.90560483983568396</v>
       </c>
       <c r="AI57" s="0">
         <v>0</v>
@@ -11942,7 +11942,7 @@
         <v>0</v>
       </c>
       <c r="Y58" s="0">
-        <v>0.61744782786762575</v>
+        <v>0.84359706214303931</v>
       </c>
       <c r="Z58" s="0">
         <v>0</v>
@@ -12035,10 +12035,10 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0.59967755536902689</v>
+        <v>0.86616396740024371</v>
       </c>
       <c r="BE58" s="0">
-        <v>0.68744255895934647</v>
+        <v>0.96646914190808308</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12220,7 +12220,7 @@
         <v>0</v>
       </c>
       <c r="AW59" s="0">
-        <v>0.70642972830788886</v>
+        <v>0.7778140844347563</v>
       </c>
       <c r="AX59" s="0">
         <v>0</v>
@@ -12256,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>0.97489025466333867</v>
+        <v>0.98763877454165527</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12294,7 +12294,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="0">
-        <v>0.50171972931943087</v>
+        <v>0.76643505490127195</v>
       </c>
       <c r="F60" s="0">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0.62596682038259854</v>
+        <v>0.96709533900470546</v>
       </c>
       <c r="BG60" s="0">
         <v>0</v>
@@ -12462,10 +12462,10 @@
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0.86543464522587199</v>
+        <v>0.99001506707921116</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0.54463428602596031</v>
+        <v>0.99585572246008769</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12488,7 +12488,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0.76977323851015633</v>
+        <v>0.80796395212457661</v>
       </c>
       <c r="B61" s="0">
         <v>0</v>
@@ -12605,7 +12605,7 @@
         <v>0</v>
       </c>
       <c r="AN61" s="0">
-        <v>0.656278272306132</v>
+        <v>0.97678825264502189</v>
       </c>
       <c r="AO61" s="0">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.78592809488049886</v>
+        <v>0.89116071354682236</v>
       </c>
       <c r="BK61" s="0">
         <v>0.72587077726891291</v>
@@ -12883,7 +12883,7 @@
         <v>0.80803690839798814</v>
       </c>
       <c r="BL62" s="0">
-        <v>0.66371597798711635</v>
+        <v>0.81907678123833894</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -13080,10 +13080,10 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0.65569256945177412</v>
+        <v>0.72587077726891291</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0.50211355133582836</v>
+        <v>0.80803690839798814</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13292,7 +13292,7 @@
         <v>0.81907678123833894</v>
       </c>
       <c r="BK64" s="0">
-        <v>0.65972592933480878</v>
+        <v>0.83989892281583534</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13411,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="AH65" s="0">
-        <v>0.54179209048674404</v>
+        <v>0.66570409087206595</v>
       </c>
       <c r="AI65" s="0">
         <v>0</v>
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0.54067773733540814</v>
+        <v>0.64904776337795056</v>
       </c>
       <c r="BL65" s="0">
         <v>0</v>
@@ -13536,7 +13536,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="0">
-        <v>0.65704164520171737</v>
+        <v>0.90671590771677391</v>
       </c>
       <c r="H66" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.68696369110401212</v>
+        <v>0.74667772059010273</v>
       </c>
       <c r="BM66" s="0">
         <v>0</v>
@@ -13716,15 +13716,15 @@
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0.59886767187429368</v>
+        <v>0.99222680081645942</v>
       </c>
       <c r="BP66" s="0">
-        <v>0.66018205211007441</v>
+        <v>0.88302921469677487</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.59493555128136644</v>
+        <v>0.9218846561884938</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13859,7 +13859,7 @@
         <v>0</v>
       </c>
       <c r="AT67" s="0">
-        <v>0.56577449795889823</v>
+        <v>0.7810317553154853</v>
       </c>
       <c r="AU67" s="0">
         <v>0</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0.69111065581228814</v>
+        <v>0.86304925386906839</v>
       </c>
       <c r="BN67" s="0">
         <v>0.99222680081645942</v>
@@ -13930,10 +13930,10 @@
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.6373666973302119</v>
+        <v>0.93614880945372381</v>
       </c>
       <c r="B68" s="0">
-        <v>0.50873727985514927</v>
+        <v>0.89749774934211679</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14101,7 +14101,7 @@
         <v>0</v>
       </c>
       <c r="BF68" s="0">
-        <v>0.68875199818490751</v>
+        <v>0.90624452968736091</v>
       </c>
       <c r="BG68" s="0">
         <v>0</v>
